--- a/data/trans_dic/P25A_10_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A_10_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por varices en las piernas</t>
+          <t>Población con limitación por varices en las piernas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>16,45%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11,15%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,58</t>
+          <t>0,0; 4,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,71</t>
+          <t>1,7; 7,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,37</t>
+          <t>1,04; 5,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,4; 45,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 14,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 11,11</t>
+          <t>0,95; 7,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 10,31</t>
+          <t>3,57; 12,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,84; 35,59</t>
+          <t>5,49; 12,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,12</t>
+          <t>5,13; 11,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,9; 35,57</t>
+          <t>10,74; 23,22</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 7,27</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,32; 9,0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 7,27</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>7,77; 16,27</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,63%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>2,13%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>22,82%</t>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,26</t>
+          <t>0,32; 2,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,7</t>
+          <t>0,36; 2,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,07</t>
+          <t>0,46; 1,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,83; 36,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 5,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,14</t>
+          <t>0,52; 3,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,82</t>
+          <t>1,58; 4,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,91; 33,94</t>
+          <t>1,26; 3,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,31</t>
+          <t>2,19; 7,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,01; 30,19</t>
+          <t>5,13; 11,17</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 3,36</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 2,63</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 4,33</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 6,63</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,84</t>
+          <t>0,29; 2,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 6,14</t>
+          <t>0,23; 2,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,52</t>
+          <t>0,16; 1,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,49</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,81</t>
+          <t>1,85; 6,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,44; 41,25</t>
+          <t>0,73; 2,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,61</t>
+          <t>0,3; 1,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 34,72</t>
+          <t>1,89; 5,82</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 3,88</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 1,91</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 1,22</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 3,37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>8,1%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,61</t>
+          <t>0,35; 2,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,8</t>
+          <t>0,47; 5,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,62; 31,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,54</t>
+          <t>0,55; 3,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,8</t>
+          <t>4,54; 9,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,92; 30,98</t>
+          <t>2,92; 7,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,9; 28,91</t>
+          <t>5,17; 11,98</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 5,35</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 5,37</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 6,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>4,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 1,83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 2,58</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 1,8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 2,4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,93; 6,45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 4,66</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 5,55</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,66; 10,33</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 3,92</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 3,3</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 3,29</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 6,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por varices en las piernas (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3560</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20026</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17593</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15912</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>29448</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>52377</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>69544</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>105585</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>33007</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>72402</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>87137</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>121497</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15439</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8900; 39438</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7555; 36579</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4233; 34611</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14961; 51610</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>34961; 80040</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45909; 98663</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>68940; 149039</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18154; 55154</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>50199; 104533</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>58441; 118050</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>84641; 177203</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11574</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12602</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15492</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15914</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29506</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27036</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>56312</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>82637</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>41080</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>39638</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>71803</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>98551</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3020; 27725</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4304; 26506</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7441; 31455</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5555; 37521</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15777; 49778</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15479; 44169</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>33003; 119342</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>55538; 121057</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>24157; 64919</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>26077; 63995</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>46492; 135327</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>69732; 142622</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6589</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6755</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>28256</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14189</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9131</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>31052</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>35344</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>20778</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>15886</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>35169</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2045; 19324</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1915; 19500</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1742; 17281</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14824</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14161; 48499</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6844; 27906</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3435; 20404</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16929; 52096</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>20239; 57454</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>10750; 34223</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6975; 27516</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>21134; 58140</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14173</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15569</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>93783</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36332</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>79460</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>107956</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>51901</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>96239</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5074; 31359</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4081; 47083</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6025; 40556</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>63526; 133897</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22150; 60633</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>50692; 117579</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>76579; 152851</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>30361; 87052</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>63909; 140554</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>36395</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>54786</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>39839</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>52722</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>180991</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>129934</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>134987</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>298734</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>217387</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>184720</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>174826</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>351456</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20375; 62986</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>34246; 88811</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>24597; 62108</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>30262; 82559</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>140839; 231321</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>98483; 166433</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>100741; 197896</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>239799; 371993</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>173668; 275066</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>144396; 231260</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>131073; 230357</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>281755; 424512</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
